--- a/data/trans_orig/Barthel_r-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Barthel_r-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>275300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>265462</v>
+        <v>265851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>281871</v>
+        <v>282456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9409289959883781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.907305788553228</v>
+        <v>0.9086345015272932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9633896008107085</v>
+        <v>0.9653879334380273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>333</v>
@@ -765,19 +765,19 @@
         <v>307402</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>295767</v>
+        <v>296031</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>317243</v>
+        <v>317404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8963891279289953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8624590687031298</v>
+        <v>0.8632299603691315</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9250860372678535</v>
+        <v>0.925554071704906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>618</v>
@@ -786,19 +786,19 @@
         <v>582702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>568910</v>
+        <v>566750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>595352</v>
+        <v>595458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9168946505851182</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8951928996406714</v>
+        <v>0.8917943293148076</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9367990850509056</v>
+        <v>0.9369660163470906</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2887</v>
+        <v>3217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14755</v>
+        <v>14294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02409895130253399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009867469809964578</v>
+        <v>0.01099559204095475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05043183993606964</v>
+        <v>0.04885616319096599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>11323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6437</v>
+        <v>6519</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18790</v>
+        <v>18611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0330165825635609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01876971368810379</v>
+        <v>0.01900857815699467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05479243361958998</v>
+        <v>0.05427001256758638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -857,19 +857,19 @@
         <v>18373</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11660</v>
+        <v>11371</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28049</v>
+        <v>28803</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0289110317878348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01834789605919032</v>
+        <v>0.01789225701907959</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04413584336614274</v>
+        <v>0.04532170535205934</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2615</v>
+        <v>2131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12429</v>
+        <v>12146</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01957891497809727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008936499384705528</v>
+        <v>0.007283918962759198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04248021351220805</v>
+        <v>0.04151292140555791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -907,19 +907,19 @@
         <v>16688</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10177</v>
+        <v>10040</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24975</v>
+        <v>25811</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04866321913848361</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.029675207268305</v>
+        <v>0.02927752144473589</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07282653141530909</v>
+        <v>0.07526397161124221</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -928,19 +928,19 @@
         <v>22417</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14261</v>
+        <v>14783</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32613</v>
+        <v>34081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0352732185865458</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02244037432190321</v>
+        <v>0.02326153629663191</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05131749170410303</v>
+        <v>0.05362686916230691</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>3665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9142</v>
+        <v>9039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01252761114987763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003226513545451559</v>
+        <v>0.003215124416087921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03124487970227771</v>
+        <v>0.03089528866619584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -978,19 +978,19 @@
         <v>6624</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2845</v>
+        <v>2838</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13078</v>
+        <v>13602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01931683123249827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008297418120644681</v>
+        <v>0.00827593059784517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03813594912291251</v>
+        <v>0.03966410828346228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -999,19 +999,19 @@
         <v>10290</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5598</v>
+        <v>5542</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17778</v>
+        <v>18786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01619117073354996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008808467183598843</v>
+        <v>0.008720401296458354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02797339392331342</v>
+        <v>0.02956084366092337</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4226</v>
+        <v>4700</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002865526581113003</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01444406234755614</v>
+        <v>0.01606287334667049</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4493</v>
+        <v>5149</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002614239136461955</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01310154798785097</v>
+        <v>0.01501447126114351</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5341</v>
+        <v>5321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00272992830695122</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008403884779095604</v>
+        <v>0.008372955363873752</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>160152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148386</v>
+        <v>147261</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>171429</v>
+        <v>171402</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7630537851553599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.70699579727839</v>
+        <v>0.7016342562902099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8167829929142675</v>
+        <v>0.8166566437548651</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>201</v>
@@ -1195,19 +1195,19 @@
         <v>231536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213797</v>
+        <v>213862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>248386</v>
+        <v>248403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6934138663405176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6402866836434311</v>
+        <v>0.6404809652007354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7438754213421938</v>
+        <v>0.7439279464099104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1216,19 +1216,19 @@
         <v>391688</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371007</v>
+        <v>366699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>414134</v>
+        <v>411477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7202922728924493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6822601410949706</v>
+        <v>0.6743377370707003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7615689727654602</v>
+        <v>0.7566820428592324</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>20063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13423</v>
+        <v>13187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30473</v>
+        <v>29720</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09558901205482345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06395449514601448</v>
+        <v>0.06282807642319156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1451923262800977</v>
+        <v>0.1416019435711296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -1266,19 +1266,19 @@
         <v>35486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25756</v>
+        <v>24171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48884</v>
+        <v>47908</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1062740122338832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07713608520475666</v>
+        <v>0.0723874321397453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1464000379955073</v>
+        <v>0.1434754439087856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1287,19 +1287,19 @@
         <v>55548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42801</v>
+        <v>42720</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71481</v>
+        <v>70856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.102150001412104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07870871545904182</v>
+        <v>0.07855972364273141</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1314498559101104</v>
+        <v>0.1303000246410766</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>22270</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14744</v>
+        <v>14892</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31703</v>
+        <v>32304</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1061089251793274</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0702481762302393</v>
+        <v>0.07095409401241276</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.151049764435619</v>
+        <v>0.1539133135304078</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1337,19 +1337,19 @@
         <v>43597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31177</v>
+        <v>31059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57898</v>
+        <v>57991</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1305664158006547</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09337088567551417</v>
+        <v>0.09301714979724089</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1733964767868972</v>
+        <v>0.17367217975312</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -1358,19 +1358,19 @@
         <v>65868</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52090</v>
+        <v>51607</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82127</v>
+        <v>82206</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1211267382802382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09579109203511266</v>
+        <v>0.09490266432138142</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1510271367157563</v>
+        <v>0.1511724797448971</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>7398</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3627</v>
+        <v>3590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13792</v>
+        <v>13716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03524827761048925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01728050630583015</v>
+        <v>0.01710244970342073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06571518219947869</v>
+        <v>0.06535013296951254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1408,19 +1408,19 @@
         <v>19822</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12483</v>
+        <v>11880</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29997</v>
+        <v>30947</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05936381551978929</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03738377966809725</v>
+        <v>0.03557760247944654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08983547345885982</v>
+        <v>0.09268194230871019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1429,19 +1429,19 @@
         <v>27220</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17511</v>
+        <v>18223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38508</v>
+        <v>39023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05005611896907849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0322022556997217</v>
+        <v>0.03351118308023322</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07081338218547378</v>
+        <v>0.07176052437194608</v>
       </c>
     </row>
     <row r="14">
@@ -1471,19 +1471,19 @@
         <v>3467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10384</v>
+        <v>10500</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0103818901051552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003387306113100509</v>
+        <v>0.003360765978017769</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03109800862348113</v>
+        <v>0.03144533995282906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1492,19 +1492,19 @@
         <v>3467</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9391</v>
+        <v>10254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006374868446129871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002067337124693604</v>
+        <v>0.002067933405558975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01726895772482333</v>
+        <v>0.01885639249144042</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>435452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>421055</v>
+        <v>418670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450348</v>
+        <v>447671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.866629466775523</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8379776824867556</v>
+        <v>0.833229785300009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8962752942964941</v>
+        <v>0.8909478235327777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>534</v>
@@ -1617,19 +1617,19 @@
         <v>538939</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>985</v>
@@ -1638,19 +1638,19 @@
         <v>974391</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>946874</v>
+        <v>948531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>998663</v>
+        <v>1000839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.826239271918402</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8029068171393622</v>
+        <v>0.8043117519475036</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8468214609751848</v>
+        <v>0.8486664654168541</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>27113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18603</v>
+        <v>19008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37710</v>
+        <v>38177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05396077315178482</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03702312157619465</v>
+        <v>0.03782886511196717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07505027362610489</v>
+        <v>0.07597828512111045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1688,19 +1688,19 @@
         <v>46808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34776</v>
+        <v>34970</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61978</v>
+        <v>61466</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06915683933968085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05137956607411982</v>
+        <v>0.05166710105279717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09156890637756268</v>
+        <v>0.09081325224470954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -1709,19 +1709,19 @@
         <v>73922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59305</v>
+        <v>56690</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94732</v>
+        <v>89687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06268227404019051</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05028757743608576</v>
+        <v>0.04807041423824835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08032858367633065</v>
+        <v>0.07605015829684007</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>27999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19621</v>
+        <v>20064</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38423</v>
+        <v>41248</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05572301280165718</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0390488169450838</v>
+        <v>0.03993060196178475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07646791914878824</v>
+        <v>0.08209016428639954</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -1759,19 +1759,19 @@
         <v>60285</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46886</v>
+        <v>47001</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78741</v>
+        <v>76922</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08906871208952903</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06927097614682147</v>
+        <v>0.06944139620786875</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1163357313707864</v>
+        <v>0.1136486008506902</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>84</v>
@@ -1780,19 +1780,19 @@
         <v>88284</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>72121</v>
+        <v>71013</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>107854</v>
+        <v>108104</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07486115963306089</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06115499372098712</v>
+        <v>0.06021581891753416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09145569183839956</v>
+        <v>0.09166704292612637</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>11063</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5466</v>
+        <v>6326</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18575</v>
+        <v>18223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02201816811686558</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01087776431662796</v>
+        <v>0.01258900975498626</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0369678290931563</v>
+        <v>0.03626788328871255</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1830,19 +1830,19 @@
         <v>26446</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17639</v>
+        <v>18312</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38472</v>
+        <v>39238</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0390733023749504</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02606024990527614</v>
+        <v>0.02705570681607219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05683999075486417</v>
+        <v>0.05797162689149164</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1851,19 +1851,19 @@
         <v>37510</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26695</v>
+        <v>26826</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50603</v>
+        <v>50319</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0318066467102429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02263654788390839</v>
+        <v>0.02274721077509538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04290879163246709</v>
+        <v>0.04266834458706989</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1901,19 +1901,19 @@
         <v>4363</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1922,19 +1922,19 @@
         <v>5202</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12122</v>
+        <v>11824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004410647698103709</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001659391702659119</v>
+        <v>0.001665218163453322</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01027925302333246</v>
+        <v>0.01002635188117631</v>
       </c>
     </row>
     <row r="21">
@@ -2264,19 +2264,19 @@
         <v>279148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>268039</v>
+        <v>266187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>289059</v>
+        <v>288685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9011000700436046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.865239682525178</v>
+        <v>0.8592595743755422</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.933093807221185</v>
+        <v>0.931884073106488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -2285,19 +2285,19 @@
         <v>295434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>280324</v>
+        <v>279018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>308183</v>
+        <v>308964</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8345699598092428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7918841611668914</v>
+        <v>0.78819615242497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8705845274263746</v>
+        <v>0.8727893257888768</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>540</v>
@@ -2306,19 +2306,19 @@
         <v>574583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>555470</v>
+        <v>555688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>592133</v>
+        <v>592736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8656194658177013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8368262012209357</v>
+        <v>0.8371547496991849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8920599739622852</v>
+        <v>0.8929684360440387</v>
       </c>
     </row>
     <row r="5">
@@ -2335,19 +2335,19 @@
         <v>6067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13057</v>
+        <v>12452</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01958525096732422</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006764099332386172</v>
+        <v>0.006771335829193269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04214820505077212</v>
+        <v>0.04019439110919883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2356,19 +2356,19 @@
         <v>16988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9905</v>
+        <v>10400</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25627</v>
+        <v>26330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04799032647102174</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02797917953812045</v>
+        <v>0.0293790184758266</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07239273542851686</v>
+        <v>0.07438062246484482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -2377,19 +2377,19 @@
         <v>23056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14846</v>
+        <v>14768</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34360</v>
+        <v>32808</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03473371890768038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02236514797784795</v>
+        <v>0.02224797531918002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05176421639621434</v>
+        <v>0.0494253272503429</v>
       </c>
     </row>
     <row r="6">
@@ -2406,19 +2406,19 @@
         <v>17337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10854</v>
+        <v>10239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28164</v>
+        <v>27010</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05596301190205848</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03503847663780574</v>
+        <v>0.0330514077355141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09091468872231767</v>
+        <v>0.08718949445001058</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -2427,19 +2427,19 @@
         <v>33747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24175</v>
+        <v>23652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46680</v>
+        <v>47690</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09533286400320458</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06829090786298614</v>
+        <v>0.06681409443979824</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1318656128013355</v>
+        <v>0.1347178019263838</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -2448,19 +2448,19 @@
         <v>51084</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37702</v>
+        <v>37819</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65428</v>
+        <v>67131</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0769590110956935</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05679868544489924</v>
+        <v>0.05697541534615454</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09856826835412161</v>
+        <v>0.101133425405596</v>
       </c>
     </row>
     <row r="7">
@@ -2477,19 +2477,19 @@
         <v>4246</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9937</v>
+        <v>10418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01370769503937451</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003530069344904905</v>
+        <v>0.003552601395813357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03207624831356926</v>
+        <v>0.03363031827431115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2498,19 +2498,19 @@
         <v>5881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11993</v>
+        <v>11736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01661362247430995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005633747451958057</v>
+        <v>0.005613764314353148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03387878337990587</v>
+        <v>0.03315328010528969</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2519,19 +2519,19 @@
         <v>10128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4945</v>
+        <v>5062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17909</v>
+        <v>18107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01525743035267761</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007449627132061964</v>
+        <v>0.007625846327156779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02697964046285842</v>
+        <v>0.02727811648536888</v>
       </c>
     </row>
     <row r="8">
@@ -2548,19 +2548,19 @@
         <v>2988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8191</v>
+        <v>7918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009643972047638158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003160229452085116</v>
+        <v>0.003131455979402261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02643935788017822</v>
+        <v>0.02556006125865095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5920</v>
+        <v>6472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005493227242220973</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01672281549814768</v>
+        <v>0.01828172989463347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -2590,19 +2590,19 @@
         <v>4932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10903</v>
+        <v>10928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007430373826247151</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002925999738084369</v>
+        <v>0.002935564922227441</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01642530435403006</v>
+        <v>0.01646341421973279</v>
       </c>
     </row>
     <row r="9">
@@ -2694,19 +2694,19 @@
         <v>175102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158940</v>
+        <v>159073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190098</v>
+        <v>190355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7008243903900119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6361372082273263</v>
+        <v>0.6366725667506797</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7608455122353954</v>
+        <v>0.7618739786923235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -2715,19 +2715,19 @@
         <v>213151</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>191579</v>
+        <v>191292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>232486</v>
+        <v>232855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5479748860919145</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4925183541237645</v>
+        <v>0.4917800052281648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5976829465502407</v>
+        <v>0.5986305558595687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>350</v>
@@ -2736,19 +2736,19 @@
         <v>388252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>363305</v>
+        <v>360519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>416495</v>
+        <v>416558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6077554036000825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5687042155348282</v>
+        <v>0.5643433035098563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.65196598793889</v>
+        <v>0.6520637216052982</v>
       </c>
     </row>
     <row r="11">
@@ -2765,19 +2765,19 @@
         <v>15785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8533</v>
+        <v>8733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27313</v>
+        <v>26634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06317693624907655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03415313658871582</v>
+        <v>0.03495310250720875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1093159246353036</v>
+        <v>0.1065995710244442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -2786,19 +2786,19 @@
         <v>24952</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16285</v>
+        <v>16451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35986</v>
+        <v>37162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06414629813239106</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04186491565160828</v>
+        <v>0.04229157984853937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09251301822243817</v>
+        <v>0.09553660673858316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -2807,19 +2807,19 @@
         <v>40736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29123</v>
+        <v>29039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55434</v>
+        <v>55730</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06376717387351079</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0455884441616913</v>
+        <v>0.04545682942851838</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08677371852432574</v>
+        <v>0.08723784307534591</v>
       </c>
     </row>
     <row r="12">
@@ -2836,19 +2836,19 @@
         <v>38643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27403</v>
+        <v>26344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53016</v>
+        <v>54514</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1546657984136675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1096771369521058</v>
+        <v>0.1054373518060828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2121910869401505</v>
+        <v>0.2181862128210129</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>91</v>
@@ -2857,19 +2857,19 @@
         <v>100236</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>84125</v>
+        <v>82883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118640</v>
+        <v>119140</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2576897432354884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2162724294947652</v>
+        <v>0.2130793697026327</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3050038108077874</v>
+        <v>0.3062878339976133</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -2878,19 +2878,19 @@
         <v>138879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>118188</v>
+        <v>118460</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>160939</v>
+        <v>162499</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2173963529136589</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1850072073472409</v>
+        <v>0.1854325557543793</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2519272143140744</v>
+        <v>0.2543698592422836</v>
       </c>
     </row>
     <row r="13">
@@ -2907,19 +2907,19 @@
         <v>17163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9705</v>
+        <v>9608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29497</v>
+        <v>28630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06869488433770352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03884148311591554</v>
+        <v>0.03845630092386373</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1180589336049531</v>
+        <v>0.1145873593080819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -2928,19 +2928,19 @@
         <v>37402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27155</v>
+        <v>26457</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51883</v>
+        <v>50057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09615502346751513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06981151363008498</v>
+        <v>0.06801574755293754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1333825635293086</v>
+        <v>0.1286876933703847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -2949,19 +2949,19 @@
         <v>54566</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41049</v>
+        <v>41090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72125</v>
+        <v>70857</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08541516967757472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0642561718661849</v>
+        <v>0.06432001893087802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1129014034694371</v>
+        <v>0.1109164440583452</v>
       </c>
     </row>
     <row r="14">
@@ -2978,19 +2978,19 @@
         <v>3158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1022</v>
+        <v>1043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8606</v>
+        <v>8684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01263799060954052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004091987311934656</v>
+        <v>0.00417427546511681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03444378876264455</v>
+        <v>0.03475675697896708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -2999,19 +2999,19 @@
         <v>13239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6624</v>
+        <v>6485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22932</v>
+        <v>23645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03403404907269095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01702846774798635</v>
+        <v>0.01667290681743088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05895311917871757</v>
+        <v>0.06078611932121399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -3020,19 +3020,19 @@
         <v>16396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9331</v>
+        <v>9444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26912</v>
+        <v>27542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02566589993517312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01460613874192996</v>
+        <v>0.01478302738949436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04212648793148603</v>
+        <v>0.04311267394013085</v>
       </c>
     </row>
     <row r="15">
@@ -3124,19 +3124,19 @@
         <v>454250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>478</v>
@@ -3145,19 +3145,19 @@
         <v>508585</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>481670</v>
+        <v>483610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>534268</v>
+        <v>535634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6845252546559197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6482997365949633</v>
+        <v>0.6509095839565027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7190932077924722</v>
+        <v>0.7209308224364944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>890</v>
@@ -3166,19 +3166,19 @@
         <v>962835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>926586</v>
+        <v>929441</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>993028</v>
+        <v>991230</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7391572067784471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7113291578270742</v>
+        <v>0.7135210668750521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7623362368934739</v>
+        <v>0.7609558479901252</v>
       </c>
     </row>
     <row r="17">
@@ -3195,19 +3195,19 @@
         <v>21852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14300</v>
+        <v>13687</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33434</v>
+        <v>34370</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03904682886480369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02555315523095675</v>
+        <v>0.02445728493302027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05974174279534377</v>
+        <v>0.06141395932756818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -3216,19 +3216,19 @@
         <v>41940</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29502</v>
+        <v>29806</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56078</v>
+        <v>55770</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05644866447716115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03970732410960396</v>
+        <v>0.0401174843221854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07547716066023914</v>
+        <v>0.07506373894813158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>60</v>
@@ -3237,19 +3237,19 @@
         <v>63792</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48407</v>
+        <v>48572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79935</v>
+        <v>81685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04897236957934618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03716124922778133</v>
+        <v>0.03728822103721398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06136515969994821</v>
+        <v>0.06270837070948049</v>
       </c>
     </row>
     <row r="18">
@@ -3266,19 +3266,19 @@
         <v>55980</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41530</v>
+        <v>41795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73005</v>
+        <v>73249</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1000290294459607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07420836067512829</v>
+        <v>0.07468238846266514</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1304502373104656</v>
+        <v>0.1308861881630025</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>123</v>
@@ -3287,19 +3287,19 @@
         <v>133983</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>112270</v>
+        <v>115155</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>154619</v>
+        <v>159663</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.180333592585333</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1511084244651959</v>
+        <v>0.1549920942564414</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2081076268295614</v>
+        <v>0.2148962752552912</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -3308,19 +3308,19 @@
         <v>189963</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>165598</v>
+        <v>165694</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>215774</v>
+        <v>216403</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1458326003311708</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1271278091562528</v>
+        <v>0.1272012520048187</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.165647273869395</v>
+        <v>0.1661302824155012</v>
       </c>
     </row>
     <row r="19">
@@ -3337,19 +3337,19 @@
         <v>21410</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12885</v>
+        <v>13972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32684</v>
+        <v>33963</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03825681400497788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02302377361791773</v>
+        <v>0.02496541149533754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05840193003313054</v>
+        <v>0.06068756234840529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -3358,19 +3358,19 @@
         <v>43283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30893</v>
+        <v>31186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56588</v>
+        <v>58446</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05825692745058142</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04157960272606535</v>
+        <v>0.04197467767139044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07616450144962243</v>
+        <v>0.0786651114871391</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -3379,19 +3379,19 @@
         <v>64693</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48871</v>
+        <v>49381</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82482</v>
+        <v>81674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04966434276929045</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0375179819316034</v>
+        <v>0.03790921234211415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06332052829736805</v>
+        <v>0.06269990112468883</v>
       </c>
     </row>
     <row r="20">
@@ -3408,19 +3408,19 @@
         <v>6145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2071</v>
+        <v>2118</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12228</v>
+        <v>12259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01098065644266323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003700798378189226</v>
+        <v>0.00378529663292644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02184997904208417</v>
+        <v>0.02190457816595526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -3429,19 +3429,19 @@
         <v>15183</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8440</v>
+        <v>8631</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25739</v>
+        <v>25176</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02043556083100474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01136009137430478</v>
+        <v>0.01161689719398774</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03464287006245202</v>
+        <v>0.03388590796063402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -3450,19 +3450,19 @@
         <v>21328</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13127</v>
+        <v>13867</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32790</v>
+        <v>32993</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01637348054174554</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01007762103531174</v>
+        <v>0.01064550183764989</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.025172154771132</v>
+        <v>0.02532839405136643</v>
       </c>
     </row>
     <row r="21">
@@ -3792,19 +3792,19 @@
         <v>307251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>295208</v>
+        <v>294613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>315585</v>
+        <v>315879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9190054383615015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8829843485949035</v>
+        <v>0.8812041871553564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9439327662585136</v>
+        <v>0.9448113754494609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>291</v>
@@ -3813,19 +3813,19 @@
         <v>309844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>294722</v>
+        <v>294597</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>324547</v>
+        <v>324681</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8202090763346906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7801798063867753</v>
+        <v>0.7798488523104784</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8591318194814416</v>
+        <v>0.8594866812959997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>590</v>
@@ -3834,19 +3834,19 @@
         <v>617095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>598705</v>
+        <v>595116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>634216</v>
+        <v>633700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8665943573738105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8407693893710844</v>
+        <v>0.8357289866928412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.890637474864363</v>
+        <v>0.8899131474738032</v>
       </c>
     </row>
     <row r="5">
@@ -3863,19 +3863,19 @@
         <v>7859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3193</v>
+        <v>2938</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15246</v>
+        <v>15122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02350671496529584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009549740450248598</v>
+        <v>0.00878859315347787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04560259506125351</v>
+        <v>0.04523037949809026</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3884,19 +3884,19 @@
         <v>33858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22763</v>
+        <v>23738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46014</v>
+        <v>46247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08962806929082197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06025840775859813</v>
+        <v>0.06283746961775441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1218075867225299</v>
+        <v>0.1224249355916606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -3905,19 +3905,19 @@
         <v>41717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30439</v>
+        <v>30157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55564</v>
+        <v>56951</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05858383304410234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04274587642583268</v>
+        <v>0.04235014646909706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07802979798621133</v>
+        <v>0.07997659372447372</v>
       </c>
     </row>
     <row r="6">
@@ -3934,19 +3934,19 @@
         <v>15226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9137</v>
+        <v>9049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24961</v>
+        <v>24815</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0455412576872591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0273285666916752</v>
+        <v>0.02706687482740842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07465872934067697</v>
+        <v>0.07422429750267572</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -3955,19 +3955,19 @@
         <v>31042</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20725</v>
+        <v>21586</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44136</v>
+        <v>42959</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08217215004541703</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05486358212626483</v>
+        <v>0.05714168146030753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1168357682044074</v>
+        <v>0.1137193297067978</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -3976,19 +3976,19 @@
         <v>46267</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34093</v>
+        <v>34051</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61763</v>
+        <v>60161</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06497380182804235</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04787672696699796</v>
+        <v>0.04781871654672559</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08673475942687355</v>
+        <v>0.0844855625415032</v>
       </c>
     </row>
     <row r="7">
@@ -4005,19 +4005,19 @@
         <v>3994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9106</v>
+        <v>9997</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01194658898594361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003027084208977739</v>
+        <v>0.003007033811480028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02723630116855725</v>
+        <v>0.02990163869423578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6023</v>
+        <v>6858</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00524427290317355</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01594382159249169</v>
+        <v>0.01815480468637223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4047,19 +4047,19 @@
         <v>5975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2040</v>
+        <v>2028</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11997</v>
+        <v>12751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008391036698260811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002864403391324236</v>
+        <v>0.002848615651433245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01684762797549257</v>
+        <v>0.01790628063771744</v>
       </c>
     </row>
     <row r="8">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6109</v>
+        <v>6297</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002746431425896789</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01617253754917486</v>
+        <v>0.01666921296399775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5260</v>
+        <v>5216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001456971055783952</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.007387202531152527</v>
+        <v>0.007324359575436247</v>
       </c>
     </row>
     <row r="9">
@@ -4214,19 +4214,19 @@
         <v>183448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169686</v>
+        <v>170258</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197076</v>
+        <v>196635</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7138116222802146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.660263529143257</v>
+        <v>0.6624891720613666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.766836773232944</v>
+        <v>0.7651225859408608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -4235,19 +4235,19 @@
         <v>227878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206541</v>
+        <v>206003</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>251079</v>
+        <v>250339</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.569454307555458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5161352647757673</v>
+        <v>0.5147905027162324</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6274329693929525</v>
+        <v>0.62558206931871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>389</v>
@@ -4256,19 +4256,19 @@
         <v>411326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>383981</v>
+        <v>381322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437933</v>
+        <v>436434</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6259080572041672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5842978477648658</v>
+        <v>0.5802508534082889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6663956734717704</v>
+        <v>0.6641140980622213</v>
       </c>
     </row>
     <row r="11">
@@ -4285,19 +4285,19 @@
         <v>22672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14599</v>
+        <v>15264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32356</v>
+        <v>32369</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08821711288291985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05680658074282496</v>
+        <v>0.05939151875454776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.125901606372536</v>
+        <v>0.1259519874067118</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -4306,19 +4306,19 @@
         <v>37602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25871</v>
+        <v>25128</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51486</v>
+        <v>51424</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09396526554271317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06464920205766074</v>
+        <v>0.0627940176075189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1286600704676981</v>
+        <v>0.1285058949352022</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -4327,19 +4327,19 @@
         <v>60274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46434</v>
+        <v>46720</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76625</v>
+        <v>79578</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0917173380870296</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07065822695751904</v>
+        <v>0.07109314885401775</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1165985560507448</v>
+        <v>0.1210922993835314</v>
       </c>
     </row>
     <row r="12">
@@ -4356,19 +4356,19 @@
         <v>31314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22690</v>
+        <v>22601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41921</v>
+        <v>42440</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1218440906385415</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08828844322972017</v>
+        <v>0.08794046532793143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1631164752024273</v>
+        <v>0.165138768482746</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>72</v>
@@ -4377,19 +4377,19 @@
         <v>96837</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77649</v>
+        <v>78514</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117566</v>
+        <v>117865</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2419913770581336</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1940393979429918</v>
+        <v>0.1962028597481169</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2937904328669249</v>
+        <v>0.294537616288593</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>107</v>
@@ -4398,19 +4398,19 @@
         <v>128151</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>105961</v>
+        <v>108533</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150072</v>
+        <v>153312</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1950054322070812</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1612397595319404</v>
+        <v>0.1651526196691356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2283623501834832</v>
+        <v>0.2332919892331479</v>
       </c>
     </row>
     <row r="13">
@@ -4427,19 +4427,19 @@
         <v>16935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10841</v>
+        <v>11102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25443</v>
+        <v>25526</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0658942393537913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0421846811356905</v>
+        <v>0.04319843309315585</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09900030146937068</v>
+        <v>0.09932378734731051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -4448,19 +4448,19 @@
         <v>29536</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19222</v>
+        <v>18689</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42741</v>
+        <v>42355</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07380933201709705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04803594963485711</v>
+        <v>0.04670381009882168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1068061454760095</v>
+        <v>0.1058429085473706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -4469,19 +4469,19 @@
         <v>46471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34544</v>
+        <v>34194</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61199</v>
+        <v>61032</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07071398031626655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05256432937454901</v>
+        <v>0.05203310272715203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09312609093315319</v>
+        <v>0.09287195251123671</v>
       </c>
     </row>
     <row r="14">
@@ -4501,16 +4501,16 @@
         <v>824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7092</v>
+        <v>6882</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01023293484453283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003204852567989011</v>
+        <v>0.003205044829217844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02759574913046406</v>
+        <v>0.02677800119246384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4519,19 +4519,19 @@
         <v>8315</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3434</v>
+        <v>3387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18118</v>
+        <v>17854</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02077971782659819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008581438539693575</v>
+        <v>0.008464171383039239</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04527600580850749</v>
+        <v>0.04461672621985357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -4540,19 +4540,19 @@
         <v>10945</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5398</v>
+        <v>5008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21183</v>
+        <v>19929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01665519218545535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008214306866408781</v>
+        <v>0.007620970046599567</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03223411855724336</v>
+        <v>0.03032527594743851</v>
       </c>
     </row>
     <row r="15">
@@ -4644,19 +4644,19 @@
         <v>490699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>462</v>
@@ -4665,19 +4665,19 @@
         <v>537722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>511333</v>
+        <v>508571</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>563638</v>
+        <v>563315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.691220406625393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6572987337499544</v>
+        <v>0.6537485105537576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7245347888315323</v>
+        <v>0.7241195124279722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>979</v>
@@ -4686,19 +4686,19 @@
         <v>1028421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>995807</v>
+        <v>995354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1061365</v>
+        <v>1060253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.751078524391502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7272595485841984</v>
+        <v>0.7269292273468205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7751383417055634</v>
+        <v>0.7743263781760488</v>
       </c>
     </row>
     <row r="17">
@@ -4715,19 +4715,19 @@
         <v>30531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20969</v>
+        <v>21484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41951</v>
+        <v>42537</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05163060380424175</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03546139723112066</v>
+        <v>0.03633118591868357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07094450627486278</v>
+        <v>0.07193421904954497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -4736,19 +4736,19 @@
         <v>71460</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53373</v>
+        <v>54878</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89479</v>
+        <v>90706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09185913024939597</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06860951356464956</v>
+        <v>0.070543775656101</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1150222069568292</v>
+        <v>0.116598835063454</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -4757,19 +4757,19 @@
         <v>101991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82906</v>
+        <v>82450</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123874</v>
+        <v>123771</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07448604447848627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06054771986467141</v>
+        <v>0.06021502866786037</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09046819412781419</v>
+        <v>0.09039268596451717</v>
       </c>
     </row>
     <row r="18">
@@ -4786,19 +4786,19 @@
         <v>46539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35656</v>
+        <v>35216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59010</v>
+        <v>61378</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07870335313210994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06029771823749912</v>
+        <v>0.05955371008887396</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09979188821602322</v>
+        <v>0.1037974743848477</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>101</v>
@@ -4807,19 +4807,19 @@
         <v>127879</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105769</v>
+        <v>106620</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>152765</v>
+        <v>152778</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1643834259732863</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1359619840022339</v>
+        <v>0.1370552466540213</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1963729578642897</v>
+        <v>0.1963896476278455</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -4828,19 +4828,19 @@
         <v>174418</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>148694</v>
+        <v>150172</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>201620</v>
+        <v>204051</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1273816417703044</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.108594637761611</v>
+        <v>0.1096739662129116</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1472473314679082</v>
+        <v>0.1490229400040443</v>
       </c>
     </row>
     <row r="19">
@@ -4857,19 +4857,19 @@
         <v>20929</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13994</v>
+        <v>13638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30658</v>
+        <v>30457</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0353928630144093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0236661376873313</v>
+        <v>0.02306355043276636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05184524802907194</v>
+        <v>0.05150685645489285</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4878,19 +4878,19 @@
         <v>31517</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22149</v>
+        <v>20078</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45626</v>
+        <v>44994</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0405142532377482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.028471547986552</v>
+        <v>0.02580933298011561</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05865039942459412</v>
+        <v>0.05783810518382865</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -4899,19 +4899,19 @@
         <v>52446</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39494</v>
+        <v>39632</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68076</v>
+        <v>68545</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03830253037641822</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02884352003095578</v>
+        <v>0.02894445615673783</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04971721946323383</v>
+        <v>0.05005999370367108</v>
       </c>
     </row>
     <row r="20">
@@ -4928,19 +4928,19 @@
         <v>2630</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7488</v>
+        <v>7825</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004447352068985462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001400006131009914</v>
+        <v>0.00139364584774388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01266378720100832</v>
+        <v>0.0132321294929337</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -4949,19 +4949,19 @@
         <v>9353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3881</v>
+        <v>4024</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18182</v>
+        <v>19020</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01202278391417651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00498907953796632</v>
+        <v>0.005172913652343402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0233716208233975</v>
+        <v>0.02444959348314438</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -4970,19 +4970,19 @@
         <v>11983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5716</v>
+        <v>5706</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21150</v>
+        <v>20647</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008751258983289118</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004174438813343543</v>
+        <v>0.004167066394887318</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01544636335866097</v>
+        <v>0.0150789633753256</v>
       </c>
     </row>
     <row r="21">
@@ -5312,19 +5312,19 @@
         <v>355280</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>343356</v>
+        <v>344555</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>366165</v>
+        <v>365349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8727528891352215</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8434607109208426</v>
+        <v>0.846406638741879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8994910919497163</v>
+        <v>0.8974867385681554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>674</v>
@@ -5333,19 +5333,19 @@
         <v>355472</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>343452</v>
+        <v>343864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>367881</v>
+        <v>367258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8144710578036722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7869315007475597</v>
+        <v>0.78787371710876</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8429033162072359</v>
+        <v>0.8414769757028554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1167</v>
@@ -5354,19 +5354,19 @@
         <v>710751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>693431</v>
+        <v>693683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>726075</v>
+        <v>725771</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8425975121150667</v>
+        <v>0.8425975121150666</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8220640089121332</v>
+        <v>0.822362934490685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8607644822852335</v>
+        <v>0.8604038440996183</v>
       </c>
     </row>
     <row r="5">
@@ -5383,19 +5383,19 @@
         <v>26323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18586</v>
+        <v>18522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35395</v>
+        <v>35176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06466304795650112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04565743062154565</v>
+        <v>0.04549851970626467</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08694802984954197</v>
+        <v>0.08641011962523246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -5404,19 +5404,19 @@
         <v>45273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36302</v>
+        <v>37083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54115</v>
+        <v>54766</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1037314739026131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0831773738841009</v>
+        <v>0.08496540040338921</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1239910878613954</v>
+        <v>0.1254826497220753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -5425,19 +5425,19 @@
         <v>71596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59129</v>
+        <v>59868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85209</v>
+        <v>84708</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08487729117900729</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07009803448060793</v>
+        <v>0.07097368449662712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1010149306472868</v>
+        <v>0.1004210736758697</v>
       </c>
     </row>
     <row r="6">
@@ -5454,19 +5454,19 @@
         <v>21329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15068</v>
+        <v>15525</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29893</v>
+        <v>28794</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05239467266516003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03701366448161596</v>
+        <v>0.03813794586831146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0734320516228793</v>
+        <v>0.07073290781958255</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -5475,19 +5475,19 @@
         <v>27934</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20785</v>
+        <v>21290</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36503</v>
+        <v>36260</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06400436332410638</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04762345625319949</v>
+        <v>0.04878056785400443</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08363644727780679</v>
+        <v>0.08308137024794669</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -5496,19 +5496,19 @@
         <v>49263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39570</v>
+        <v>40161</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61335</v>
+        <v>60379</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05840159782364224</v>
+        <v>0.05840159782364225</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04691025127205978</v>
+        <v>0.04761055728368998</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07271261421980958</v>
+        <v>0.07157940463907321</v>
       </c>
     </row>
     <row r="7">
@@ -5525,19 +5525,19 @@
         <v>4148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9281</v>
+        <v>9220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01018939024311723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004470226929505346</v>
+        <v>0.004472727610064392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02279846971933171</v>
+        <v>0.02264962523519307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -5546,19 +5546,19 @@
         <v>7309</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4223</v>
+        <v>3952</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12636</v>
+        <v>12132</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01674578717278021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009676965012501444</v>
+        <v>0.009054032248847694</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02895199323618698</v>
+        <v>0.02779715411470789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -5567,19 +5567,19 @@
         <v>11456</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7083</v>
+        <v>6736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18422</v>
+        <v>16730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01358171023016523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008396959899840307</v>
+        <v>0.007985335209996499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02183960457986826</v>
+        <v>0.01983404298432016</v>
       </c>
     </row>
     <row r="8">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2307</v>
+        <v>2483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001047317796827907</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.005286228337900418</v>
+        <v>0.00569004674370947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2280</v>
+        <v>2575</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0005418886521187185</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.002702718695814111</v>
+        <v>0.003052993344372441</v>
       </c>
     </row>
     <row r="9">
@@ -5734,19 +5734,19 @@
         <v>207690</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194081</v>
+        <v>193080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220735</v>
+        <v>219676</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6761774402437817</v>
+        <v>0.6761774402437818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6318722117178746</v>
+        <v>0.6286127864998224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7186484452114884</v>
+        <v>0.7152006321651021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>399</v>
@@ -5755,19 +5755,19 @@
         <v>206529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>191642</v>
+        <v>191222</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221322</v>
+        <v>222898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4483045535920256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4159900445341934</v>
+        <v>0.4150772934375029</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4804136101029722</v>
+        <v>0.4838351434774772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>698</v>
@@ -5776,19 +5776,19 @@
         <v>414219</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>392272</v>
+        <v>391958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>435635</v>
+        <v>435848</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5394583035736488</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5108757440508358</v>
+        <v>0.5104663735693366</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5673484925901484</v>
+        <v>0.567626726308484</v>
       </c>
     </row>
     <row r="11">
@@ -5805,19 +5805,19 @@
         <v>34576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26873</v>
+        <v>26383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44714</v>
+        <v>45991</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1125680836674739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08748959667854866</v>
+        <v>0.08589569566567912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1455751886401027</v>
+        <v>0.1497344866685148</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -5826,19 +5826,19 @@
         <v>83278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71447</v>
+        <v>71208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96001</v>
+        <v>95925</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1807683231614183</v>
+        <v>0.1807683231614182</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1550863881877553</v>
+        <v>0.1545673266768562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2083854033371887</v>
+        <v>0.2082192641532625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>208</v>
@@ -5847,19 +5847,19 @@
         <v>117854</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>102947</v>
+        <v>103783</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>133143</v>
+        <v>134030</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1534868520269501</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1340729427814123</v>
+        <v>0.1351620995079593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1733990367508843</v>
+        <v>0.1745544949367614</v>
       </c>
     </row>
     <row r="12">
@@ -5876,19 +5876,19 @@
         <v>47293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38428</v>
+        <v>38376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59165</v>
+        <v>59286</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1539705845248146</v>
+        <v>0.1539705845248147</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1251104770252174</v>
+        <v>0.124939455566143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1926247111319377</v>
+        <v>0.1930166737107832</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>217</v>
@@ -5897,19 +5897,19 @@
         <v>112913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100562</v>
+        <v>99747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128420</v>
+        <v>126259</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2450963194701981</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2182863540932443</v>
+        <v>0.2165161764544953</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2787554426504403</v>
+        <v>0.2740639301229787</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>290</v>
@@ -5918,19 +5918,19 @@
         <v>160206</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>144179</v>
+        <v>141746</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177887</v>
+        <v>178312</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2086441878359622</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1877713089599218</v>
+        <v>0.1846025890157365</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2316708410487133</v>
+        <v>0.2322250865296537</v>
       </c>
     </row>
     <row r="13">
@@ -5947,19 +5947,19 @@
         <v>16433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10917</v>
+        <v>11017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24262</v>
+        <v>24354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05350230245180985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0355438985071721</v>
+        <v>0.0358684131559351</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07898875726556794</v>
+        <v>0.07928793090150529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -5968,19 +5968,19 @@
         <v>51677</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62662</v>
+        <v>63275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.112173773907571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09034515353817331</v>
+        <v>0.09034105674323076</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1360170391269208</v>
+        <v>0.1373483137805753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -5989,19 +5989,19 @@
         <v>68111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56258</v>
+        <v>57284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81887</v>
+        <v>82589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08870400214702985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07326698199583123</v>
+        <v>0.07460436033965585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1066458563964102</v>
+        <v>0.1075597036827692</v>
       </c>
     </row>
     <row r="14">
@@ -6018,19 +6018,19 @@
         <v>1162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3583</v>
+        <v>3234</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003781589112119917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00110292851574073</v>
+        <v>0.001108968473281817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01166664289282234</v>
+        <v>0.01052967504523077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6039,19 +6039,19 @@
         <v>6292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3386</v>
+        <v>3291</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10897</v>
+        <v>10722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01365702986878687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007349050864450704</v>
+        <v>0.007144458076380815</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02365448378687547</v>
+        <v>0.02327317983194392</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -6060,19 +6060,19 @@
         <v>7453</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4308</v>
+        <v>4349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11999</v>
+        <v>12137</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009706654416409142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005610677730909129</v>
+        <v>0.005664392463963055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01562654036281357</v>
+        <v>0.01580654254030065</v>
       </c>
     </row>
     <row r="15">
@@ -6164,19 +6164,19 @@
         <v>562969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>545687</v>
+        <v>543884</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>581398</v>
+        <v>580634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.788216408797812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7640188884092403</v>
+        <v>0.7614952744278833</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8140188062401952</v>
+        <v>0.8129485914150197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1073</v>
@@ -6185,19 +6185,19 @@
         <v>562001</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>541307</v>
+        <v>539499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>581611</v>
+        <v>582118</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.626439829488565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6033725220545011</v>
+        <v>0.6013574300649834</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6482985055131995</v>
+        <v>0.6488634410877104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1865</v>
@@ -6206,19 +6206,19 @@
         <v>1124971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1095634</v>
+        <v>1093974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1153902</v>
+        <v>1151373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.698146672908186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6799405690851211</v>
+        <v>0.6789101356535956</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7161006328651891</v>
+        <v>0.7145310924121285</v>
       </c>
     </row>
     <row r="17">
@@ -6235,19 +6235,19 @@
         <v>60899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49065</v>
+        <v>49762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74592</v>
+        <v>74019</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08526441568721929</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06869650497712612</v>
+        <v>0.0696727012147363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.104436166585312</v>
+        <v>0.1036343973890239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>237</v>
@@ -6256,19 +6256,19 @@
         <v>128551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>113082</v>
+        <v>112903</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144831</v>
+        <v>143843</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1432908907936958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1260481240525849</v>
+        <v>0.125848415245076</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1614374335435098</v>
+        <v>0.1603361704999469</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>329</v>
@@ -6277,19 +6277,19 @@
         <v>189450</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170308</v>
+        <v>171205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>211144</v>
+        <v>209708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1175708800083347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1056917687115032</v>
+        <v>0.1062480216054543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1310340820805049</v>
+        <v>0.1301428175155163</v>
       </c>
     </row>
     <row r="18">
@@ -6306,19 +6306,19 @@
         <v>68621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56299</v>
+        <v>56179</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83570</v>
+        <v>82435</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09607698459222214</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07882449304451004</v>
+        <v>0.07865671416713528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1170074646523058</v>
+        <v>0.115417860123016</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>268</v>
@@ -6327,19 +6327,19 @@
         <v>140848</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124857</v>
+        <v>125972</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>155653</v>
+        <v>157519</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.15699742129222</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1391725579229739</v>
+        <v>0.1404157581777396</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1734997258228032</v>
+        <v>0.1755799112284062</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>374</v>
@@ -6348,19 +6348,19 @@
         <v>209469</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>188977</v>
+        <v>187467</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230193</v>
+        <v>229337</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1299946732173509</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1172775940276993</v>
+        <v>0.1163405180742453</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1428557872934635</v>
+        <v>0.1423245275862881</v>
       </c>
     </row>
     <row r="19">
@@ -6377,19 +6377,19 @@
         <v>20581</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14080</v>
+        <v>14526</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28767</v>
+        <v>30315</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02881593375063424</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01971284645695464</v>
+        <v>0.02033848184390515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04027740745038346</v>
+        <v>0.04244466750125592</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -6398,19 +6398,19 @@
         <v>58986</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47910</v>
+        <v>48266</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71296</v>
+        <v>71254</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06574929064727895</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0534033264201895</v>
+        <v>0.05379966482603305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07947075119096958</v>
+        <v>0.07942417331317103</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -6419,19 +6419,19 @@
         <v>79567</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67223</v>
+        <v>67312</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98212</v>
+        <v>95625</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04937872297143427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04171807307083187</v>
+        <v>0.04177304764924968</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0609492089453092</v>
+        <v>0.05934378911310757</v>
       </c>
     </row>
     <row r="20">
@@ -6448,19 +6448,19 @@
         <v>1162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3153</v>
+        <v>3357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001626257172112241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0004718181540505243</v>
+        <v>0.0004739312939229487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004414813826886549</v>
+        <v>0.004699515677641443</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -6469,19 +6469,19 @@
         <v>6749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3725</v>
+        <v>3754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11399</v>
+        <v>11433</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007522567778240232</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00415194344863506</v>
+        <v>0.004184905108057668</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01270576973067291</v>
+        <v>0.01274398988961366</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -6490,19 +6490,19 @@
         <v>7910</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4557</v>
+        <v>4560</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12992</v>
+        <v>12849</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004909050894694017</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002828070638730568</v>
+        <v>0.002829801345984547</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008062976196066978</v>
+        <v>0.007973983851304529</v>
       </c>
     </row>
     <row r="21">
